--- a/dist/data/profiles/xlsx/bluff/profile 22-1 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 22-1 graph.xlsx
@@ -5607,11 +5607,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55154595"/>
-        <c:axId val="24724029"/>
+        <c:axId val="12088861"/>
+        <c:axId val="32477818"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55154595"/>
+        <c:axId val="12088861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,12 +5646,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24724029"/>
+        <c:crossAx val="32477818"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24724029"/>
+        <c:axId val="32477818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,7 +5695,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55154595"/>
+        <c:crossAx val="12088861"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
